--- a/BaocaoExcel/Plant_03_UpdateDiscount.xlsx
+++ b/BaocaoExcel/Plant_03_UpdateDiscount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DCB8B4-E6AE-4183-BA37-FF10982A0240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C005D59-C976-4D66-9A08-42E1399FF417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="826" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39851,8 +39851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED81419-6D1F-3C4D-A365-6F7970C1E995}">
   <dimension ref="A1:BF45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="112" zoomScaleNormal="113" zoomScaleSheetLayoutView="142" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="112" zoomScaleNormal="113" zoomScaleSheetLayoutView="142" workbookViewId="0">
+      <selection activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
